--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0021 - Migrasi data Non Sales yang ada pada SAPM ke Digi Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0021 - Migrasi data Non Sales yang ada pada SAPM ke Digi Sales.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACAF790-B64D-416B-B705-4E2BDE5031D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710D7AFA-CF72-429F-878E-DAADBDF2725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0313" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0021" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,9 +119,6 @@
     <t>EXPL_QUERY3</t>
   </si>
   <si>
-    <t>DGS-328</t>
-  </si>
-  <si>
     <t>Migrasi data Non Sales yang ada pada SAPM ke Digi Sales</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   <si>
     <t xml:space="preserve">SELECT * FROM DigisalesNew..NonSalesUpdate order by nama
 </t>
+  </si>
+  <si>
+    <t>SCD0021-001</t>
   </si>
 </sst>
 </file>
@@ -582,14 +582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -643,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="6">
         <v>35036</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -738,12 +738,12 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -762,16 +762,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -779,10 +779,10 @@
       <c r="O3" s="9"/>
       <c r="P3" s="11"/>
       <c r="T3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="7" t="s">
         <v>22</v>
@@ -799,28 +799,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="13">
         <v>35036</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -833,12 +833,12 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
